--- a/pokedex.xlsx
+++ b/pokedex.xlsx
@@ -3364,7 +3364,7 @@
     <t xml:space="preserve">#076</t>
   </si>
   <si>
-    <t xml:space="preserve">Magmotar</t>
+    <t xml:space="preserve">Magmortar</t>
   </si>
   <si>
     <t xml:space="preserve">Magmotar é a forma evoluída de Magmar. Ele é um Pokémon poderoso do tipo Fogo. Magmotar tem uma abertura em suas mãos que usa para liberar bolas de fogo e lava derretida com grande precisão. </t>
@@ -7199,7 +7199,7 @@
     <t xml:space="preserve">#181</t>
   </si>
   <si>
-    <t xml:space="preserve">Driffliblin </t>
+    <t xml:space="preserve">Drifblim </t>
   </si>
   <si>
     <t xml:space="preserve">Drifblim é forte o suficiente para levantar Pokémon ou pessoas, mas não tem controle sobre seu vôo. Isso faz com que ele flutue com o vento e acabe em qualquer lugar. Há rumores de Drifblim carregando pessoas para a vida após a morte; também houve canções ou poemas dedicados a Drifblim devido a pessoas que admiram seu aspecto transitório e melancólico</t>
@@ -7414,7 +7414,7 @@
     <t xml:space="preserve">#191</t>
   </si>
   <si>
-    <t xml:space="preserve">Grimer (Alolan)</t>
+    <t xml:space="preserve">Grimer-A</t>
   </si>
   <si>
     <t xml:space="preserve">Grimer foi trazido para Ga'Al para lidar com o excesso de lixo Nuclear. Ele também tem dois "dentes" cegos em sua mandíbula superior, que na verdade são toxinas cristalizadas formadas por sua dieta. Não se sabe como quebrar esses cristais tóxicos, mas o contato direto com eles é perigoso. Venenos letais vazam do corpo de Alolan Grimer quando esses cristais caem.</t>
@@ -7467,7 +7467,7 @@
     <t xml:space="preserve">#192</t>
   </si>
   <si>
-    <t xml:space="preserve">Muk (Alolan)</t>
+    <t xml:space="preserve">Muk-A</t>
   </si>
   <si>
     <t xml:space="preserve"> Chifre de Ga'Al</t>
@@ -8677,7 +8677,7 @@
     <t xml:space="preserve">#237</t>
   </si>
   <si>
-    <t xml:space="preserve">Yamma</t>
+    <t xml:space="preserve">Yanma</t>
   </si>
   <si>
     <t xml:space="preserve">Insect/Flying</t>
@@ -11060,7 +11060,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Alolan Marowak</t>
+    <t xml:space="preserve">Marowak-A</t>
   </si>
   <si>
     <t xml:space="preserve">Fire/Ghost</t>
@@ -11495,7 +11495,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -11586,6 +11586,10 @@
     </xf>
     <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -12220,9 +12224,9 @@
   <dimension ref="A1:AJ1038"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H201" activeCellId="0" sqref="H201"/>
+      <selection pane="bottomLeft" activeCell="C336" activeCellId="0" sqref="C336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19060,6 +19064,7 @@
       <c r="G201" s="22" t="s">
         <v>483</v>
       </c>
+      <c r="H201" s="23"/>
       <c r="I201" s="13" t="s">
         <v>839</v>
       </c>
@@ -20093,7 +20098,7 @@
         <v>0</v>
       </c>
       <c r="M231" s="6"/>
-      <c r="N231" s="23"/>
+      <c r="N231" s="24"/>
     </row>
     <row r="232" customFormat="false" ht="284.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="17"/>
@@ -20452,7 +20457,7 @@
       <c r="F242" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G242" s="24" t="s">
+      <c r="G242" s="25" t="s">
         <v>1000</v>
       </c>
       <c r="I242" s="13" t="s">
@@ -20468,7 +20473,7 @@
         <v>1</v>
       </c>
       <c r="M242" s="6"/>
-      <c r="AJ242" s="25"/>
+      <c r="AJ242" s="26"/>
     </row>
     <row r="243" customFormat="false" ht="284.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="17"/>
@@ -20487,7 +20492,7 @@
       <c r="F243" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G243" s="24" t="s">
+      <c r="G243" s="25" t="s">
         <v>1000</v>
       </c>
       <c r="I243" s="13" t="s">
@@ -21342,7 +21347,7 @@
       <c r="G268" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="I268" s="26" t="s">
+      <c r="I268" s="27" t="s">
         <v>1102</v>
       </c>
       <c r="J268" s="14" t="s">
@@ -23745,7 +23750,7 @@
       <c r="D339" s="18" t="s">
         <v>622</v>
       </c>
-      <c r="E339" s="27" t="s">
+      <c r="E339" s="28" t="s">
         <v>1359</v>
       </c>
       <c r="F339" s="9" t="s">
@@ -23779,7 +23784,7 @@
       <c r="D340" s="18" t="s">
         <v>622</v>
       </c>
-      <c r="E340" s="27" t="s">
+      <c r="E340" s="28" t="s">
         <v>1359</v>
       </c>
       <c r="F340" s="9" t="s">
@@ -23813,7 +23818,7 @@
       <c r="D341" s="18" t="s">
         <v>1365</v>
       </c>
-      <c r="E341" s="27" t="s">
+      <c r="E341" s="28" t="s">
         <v>1359</v>
       </c>
       <c r="F341" s="9" t="s">
@@ -23847,7 +23852,7 @@
       <c r="D342" s="18" t="s">
         <v>1365</v>
       </c>
-      <c r="E342" s="27" t="s">
+      <c r="E342" s="28" t="s">
         <v>1359</v>
       </c>
       <c r="F342" s="9" t="s">
@@ -23881,7 +23886,7 @@
       <c r="D343" s="18" t="s">
         <v>1371</v>
       </c>
-      <c r="E343" s="27" t="s">
+      <c r="E343" s="28" t="s">
         <v>1359</v>
       </c>
       <c r="F343" s="9" t="s">
@@ -23915,7 +23920,7 @@
       <c r="D344" s="18" t="s">
         <v>1371</v>
       </c>
-      <c r="E344" s="27" t="s">
+      <c r="E344" s="28" t="s">
         <v>1359</v>
       </c>
       <c r="F344" s="9" t="s">
@@ -23949,7 +23954,7 @@
       <c r="D345" s="18" t="s">
         <v>1210</v>
       </c>
-      <c r="E345" s="28" t="s">
+      <c r="E345" s="29" t="s">
         <v>1379</v>
       </c>
       <c r="F345" s="9" t="s">
@@ -23961,10 +23966,10 @@
       <c r="I345" s="13" t="s">
         <v>1380</v>
       </c>
-      <c r="J345" s="29" t="s">
+      <c r="J345" s="30" t="s">
         <v>1381</v>
       </c>
-      <c r="K345" s="29" t="n">
+      <c r="K345" s="30" t="n">
         <v>5</v>
       </c>
       <c r="L345" s="11" t="n">
@@ -23983,7 +23988,7 @@
       <c r="D346" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="E346" s="28" t="s">
+      <c r="E346" s="29" t="s">
         <v>1379</v>
       </c>
       <c r="F346" s="9" t="s">
@@ -23995,10 +24000,10 @@
       <c r="I346" s="13" t="s">
         <v>1384</v>
       </c>
-      <c r="J346" s="29" t="s">
+      <c r="J346" s="30" t="s">
         <v>1381</v>
       </c>
-      <c r="K346" s="29" t="n">
+      <c r="K346" s="30" t="n">
         <v>5</v>
       </c>
       <c r="L346" s="11" t="n">
@@ -24008,36 +24013,36 @@
     </row>
     <row r="347" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="17"/>
-      <c r="B347" s="30"/>
-      <c r="C347" s="31"/>
-      <c r="D347" s="31"/>
-      <c r="E347" s="31"/>
-      <c r="F347" s="32"/>
-      <c r="G347" s="30"/>
-      <c r="I347" s="33"/>
-      <c r="J347" s="34"/>
-      <c r="K347" s="34"/>
-      <c r="L347" s="34"/>
+      <c r="B347" s="31"/>
+      <c r="C347" s="32"/>
+      <c r="D347" s="32"/>
+      <c r="E347" s="32"/>
+      <c r="F347" s="33"/>
+      <c r="G347" s="31"/>
+      <c r="I347" s="34"/>
+      <c r="J347" s="35"/>
+      <c r="K347" s="35"/>
+      <c r="L347" s="35"/>
       <c r="M347" s="6"/>
-      <c r="N347" s="35"/>
-      <c r="O347" s="35"/>
-      <c r="P347" s="35"/>
-      <c r="Q347" s="35"/>
-      <c r="R347" s="35"/>
-      <c r="S347" s="35"/>
-      <c r="T347" s="35"/>
-      <c r="U347" s="35"/>
-      <c r="V347" s="35"/>
-      <c r="W347" s="35"/>
-      <c r="X347" s="35"/>
-      <c r="Y347" s="35"/>
-      <c r="Z347" s="35"/>
-      <c r="AA347" s="35"/>
-      <c r="AB347" s="35"/>
-      <c r="AC347" s="35"/>
-      <c r="AD347" s="35"/>
-      <c r="AE347" s="35"/>
-      <c r="AF347" s="35"/>
+      <c r="N347" s="36"/>
+      <c r="O347" s="36"/>
+      <c r="P347" s="36"/>
+      <c r="Q347" s="36"/>
+      <c r="R347" s="36"/>
+      <c r="S347" s="36"/>
+      <c r="T347" s="36"/>
+      <c r="U347" s="36"/>
+      <c r="V347" s="36"/>
+      <c r="W347" s="36"/>
+      <c r="X347" s="36"/>
+      <c r="Y347" s="36"/>
+      <c r="Z347" s="36"/>
+      <c r="AA347" s="36"/>
+      <c r="AB347" s="36"/>
+      <c r="AC347" s="36"/>
+      <c r="AD347" s="36"/>
+      <c r="AE347" s="36"/>
+      <c r="AF347" s="36"/>
     </row>
     <row r="348" customFormat="false" ht="284.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A348" s="17"/>

--- a/pokedex.xlsx
+++ b/pokedex.xlsx
@@ -589,25 +589,7 @@
     <t xml:space="preserve">Na região de Alola , Golem tem antebraços muito mais curtos com duas garras. Os pés também têm apenas duas garras. Seu rosto atrai areia de ferro, criando a aparência de bigode, sobrancelhas e uma grande barba preta. Projetando-se do topo de seu corpo estão duas grandes rochas negras com uma rocha menor no meio, formando uma forma de canhão. Na borda interna das rochas maiores há três pontos dourados. O canhão os impede de rolar facilmente em uma bola como sua variante Kantoniana. Alolan Golem é capaz de disparar a pequena rocha usando magnetismo.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Ponyta </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">(Galar)</t>
-    </r>
+    <t xml:space="preserve">Ponyta-galar</t>
   </si>
   <si>
     <t xml:space="preserve">Psychic</t>
@@ -621,25 +603,7 @@
 Tem um kit completo para ser chata: Cura com Morning Sun, Hypnosis e Taunt para ganhar tempo. Tudo isso lhe dando acesso a Swords Dance e te fazendo ficar buff. Psycho Cut e Play Rough terminam o set.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Rapidash </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">(Galar)</t>
-    </r>
+    <t xml:space="preserve">Rapidash (Galar)</t>
   </si>
   <si>
     <t xml:space="preserve">Psychic/Fairy</t>
@@ -3827,7 +3791,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3908,12 +3872,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -4149,7 +4107,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4169,7 +4127,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4581,7 +4539,7 @@
   <dimension ref="A1:AG999"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A54" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C55" activeCellId="0" sqref="C55"/>
+      <selection pane="topLeft" activeCell="C54" activeCellId="0" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/pokedex.xlsx
+++ b/pokedex.xlsx
@@ -603,7 +603,25 @@
 Tem um kit completo para ser chata: Cura com Morning Sun, Hypnosis e Taunt para ganhar tempo. Tudo isso lhe dando acesso a Swords Dance e te fazendo ficar buff. Psycho Cut e Play Rough terminam o set.</t>
   </si>
   <si>
-    <t xml:space="preserve">Rapidash (Galar)</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Rapidash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">-galar</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Psychic/Fairy</t>
@@ -3545,7 +3563,25 @@
     <t xml:space="preserve">Musharna libera uma fumaça de sonho pela testa, onde armazena as visões que consome. Ao espalhar essa fumaça, ele pode influenciar o clima do sono ao redor e revelar fragmentos de sonhos antigos.</t>
   </si>
   <si>
-    <t xml:space="preserve">Yamask (Galar)</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Yamask</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">-galar</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Ground/Ghost</t>
@@ -3791,7 +3827,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3872,6 +3908,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -4107,7 +4149,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4127,7 +4169,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4538,8 +4580,8 @@
   </sheetPr>
   <dimension ref="A1:AG999"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A54" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C54" activeCellId="0" sqref="C54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A374" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C374" activeCellId="0" sqref="C374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
